--- a/kuronen_mel.xlsx
+++ b/kuronen_mel.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meglab/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ben/Documents/GitHub/bi_phon/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91AAF99D-61BF-674B-BC78-5609B66F1261}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD8BB443-8CE5-9A45-9A34-A76C1B9933E4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="63040" yWindow="2300" windowWidth="27640" windowHeight="16940" xr2:uid="{2929DC30-394C-4D4B-AD79-53F30D742133}"/>
+    <workbookView xWindow="61960" yWindow="2300" windowWidth="27640" windowHeight="16940" xr2:uid="{2929DC30-394C-4D4B-AD79-53F30D742133}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -42,15 +42,9 @@
     <t>ø</t>
   </si>
   <si>
-    <t>œ</t>
-  </si>
-  <si>
     <t>ɛ</t>
   </si>
   <si>
-    <t>æ</t>
-  </si>
-  <si>
     <t>ɒ</t>
   </si>
   <si>
@@ -58,13 +52,19 @@
   </si>
   <si>
     <t>u</t>
+  </si>
+  <si>
+    <t>ae</t>
+  </si>
+  <si>
+    <t>oe</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -79,8 +79,15 @@
     </font>
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Doulos SIL"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -103,10 +110,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -421,167 +429,170 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48C23D98-E37A-844C-9D3A-214C769664AA}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
+      <c r="B1" s="2">
         <v>373</v>
       </c>
-      <c r="C1">
+      <c r="C1" s="2">
         <v>1664</v>
       </c>
-      <c r="D1">
+      <c r="D1" s="2">
         <v>1965</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <v>385</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>1624</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="2">
         <v>1875</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>494</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>1600</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <v>1852</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>433</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>1404</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <v>1696</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>599</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <v>1259</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <v>1715</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="2">
+        <v>651</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1155</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B6">
-        <v>651</v>
-      </c>
-      <c r="C6">
-        <v>1155</v>
-      </c>
-      <c r="D6">
-        <v>1681</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="2" t="s">
+      <c r="B7" s="2">
+        <v>689</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1365</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1785</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="2">
+        <v>722</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1344</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1753</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B7">
-        <v>689</v>
-      </c>
-      <c r="C7">
-        <v>1365</v>
-      </c>
-      <c r="D7">
-        <v>1785</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1" t="s">
+      <c r="B9" s="2">
+        <v>629</v>
+      </c>
+      <c r="C9" s="2">
+        <v>902</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B8">
-        <v>722</v>
-      </c>
-      <c r="C8">
-        <v>1344</v>
-      </c>
-      <c r="D8">
-        <v>1753</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="2" t="s">
+      <c r="B10" s="2">
+        <v>497</v>
+      </c>
+      <c r="C10" s="2">
+        <v>790</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1795</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B9">
-        <v>629</v>
-      </c>
-      <c r="C9">
-        <v>902</v>
-      </c>
-      <c r="D9">
-        <v>1706</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>497</v>
-      </c>
-      <c r="C10">
-        <v>790</v>
-      </c>
-      <c r="D10">
-        <v>1795</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11">
+      <c r="B11" s="2">
         <v>401</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="2">
         <v>763</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="2">
         <v>1783</v>
       </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
